--- a/Superstore_Performance_Review.xlsx
+++ b/Superstore_Performance_Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/SQL Excel Scorecards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_L0_SQL_Performance_Scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{0700F15A-18BC-44CF-B953-BBA54CF3BCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717E0A13-72C4-4BA4-AAF1-7AEB9D92D4D9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30915" yWindow="2115" windowWidth="17010" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perf_Review" sheetId="2" r:id="rId1"/>

--- a/Superstore_Performance_Review.xlsx
+++ b/Superstore_Performance_Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/__DSM_LMS_Courses/GitHub/DSM_L0_SQL_Performance_Scorecards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:40009_{0700F15A-18BC-44CF-B953-BBA54CF3BCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717E0A13-72C4-4BA4-AAF1-7AEB9D92D4D9}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{0700F15A-18BC-44CF-B953-BBA54CF3BCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8FF553-2D53-4CF7-AE18-5D25D5FE2B00}"/>
   <bookViews>
-    <workbookView xWindow="30915" yWindow="2115" windowWidth="17010" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="1380" windowWidth="21015" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perf_Review" sheetId="2" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
   <dimension ref="B1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1217,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>37</v>
@@ -1343,23 +1343,23 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" ref="E12:F15" ca="1" si="0">SUMIFS(INDIRECT($D12),INDIRECT($B12),$C12,INDIRECT(E$5),E$7,INDIRECT(E$6),E$8, INDIRECT($E$2), $F$2)</f>
-        <v>10893.44479999999</v>
+        <v>1579.212</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6866.3373999999994</v>
+        <v>1773.896</v>
       </c>
       <c r="G12" s="4">
         <f ca="1">E12/F12-1</f>
-        <v>0.58650007498903145</v>
+        <v>-0.10974938778823562</v>
       </c>
       <c r="H12" s="3">
         <f ca="1">SUMIFS(INDIRECT($D12),INDIRECT($B12),$C12,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>12801.09199999999</v>
+        <v>4515.0190000000002</v>
       </c>
       <c r="I12" s="4">
         <f ca="1">E12/H12-1</f>
-        <v>-0.14902222404151155</v>
+        <v>-0.65023137222678362</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -1374,23 +1374,23 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" ref="G13:G25" ca="1" si="1">E13/F13-1</f>
-        <v>0.73239436619718301</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="H13" s="5">
         <f ca="1">SUMIFS(INDIRECT($D13),INDIRECT($B13),$C13,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" ref="I13:I25" ca="1" si="2">E13/H13-1</f>
-        <v>-0.2407407407407407</v>
+        <v>-0.56716417910447769</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1405,23 +1405,23 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1000.8531999999989</v>
+        <v>146.50609999999998</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>-199.04209999999995</v>
+        <v>-84.543599999999998</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0283492788711488</v>
+        <v>-2.7329058615909423</v>
       </c>
       <c r="H14" s="3">
         <f ca="1">SUMIFS(INDIRECT($D14),INDIRECT($B14),$C14,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>-555.26800000000208</v>
+        <v>-139.02190000000002</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.8024687178083285</v>
+        <v>-2.0538346836002095</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -1436,23 +1436,23 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.24</v>
+        <v>1.6</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8699999999999912</v>
+        <v>1.3</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10732538330493901</v>
+        <v>0.23076923076923084</v>
       </c>
       <c r="H15" s="3">
         <f ca="1">SUMIFS(INDIRECT($D15),INDIRECT($B15),$C15,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>8.3200000000000021</v>
+        <v>2.7</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.37019230769230782</v>
+        <v>-0.40740740740740744</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1468,23 +1468,23 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" ref="E17:F20" ca="1" si="3">SUMIFS(INDIRECT($D17),INDIRECT($B17),$C17,INDIRECT(E$5),E$7,INDIRECT(E$6),E$8, INDIRECT($E$2), $F$2)</f>
-        <v>14550.286000000004</v>
+        <v>2256.5720000000001</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7407.771999999999</v>
+        <v>1514.8119999999999</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96419193247308432</v>
+        <v>0.48967132555062953</v>
       </c>
       <c r="H17" s="3">
         <f ca="1">SUMIFS(INDIRECT($D17),INDIRECT($B17),$C17,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>17346.930999999982</v>
+        <v>3807.4139999999898</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.16121843108731926</v>
+        <v>-0.40732160989059607</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -1499,23 +1499,23 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>557</v>
+        <v>125</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5090090090090089</v>
+        <v>0.86567164179104483</v>
       </c>
       <c r="H18" s="5">
         <f ca="1">SUMIFS(INDIRECT($D18),INDIRECT($B18),$C18,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>287</v>
+        <v>86</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94076655052264813</v>
+        <v>0.45348837209302317</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -1530,23 +1530,23 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>2715.9623999999985</v>
+        <v>669.25369999999998</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>953.82529999999792</v>
+        <v>314.73349999999897</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.847442188836891</v>
+        <v>1.126413934328574</v>
       </c>
       <c r="H19" s="3">
         <f ca="1">SUMIFS(INDIRECT($D19),INDIRECT($B19),$C19,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>1061.4055999999978</v>
+        <v>770.55289999999911</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5588355667239782</v>
+        <v>-0.1314630053303274</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -1561,23 +1561,23 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>19.399999999999991</v>
+        <v>4.0000000000000009</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9.7999999999999972</v>
+        <v>3.1</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97959183673469363</v>
+        <v>0.29032258064516148</v>
       </c>
       <c r="H20" s="5">
         <f ca="1">SUMIFS(INDIRECT($D20),INDIRECT($B20),$C20,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>15.499999999999975</v>
+        <v>3.6999999999999904</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25161290322580787</v>
+        <v>8.1081081081084028E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1593,23 +1593,23 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" ref="E22:F25" ca="1" si="4">SUMIFS(INDIRECT($D22),INDIRECT($B22),$C22,INDIRECT(E$5),E$7,INDIRECT(E$6),E$8, INDIRECT($E$2), $F$2)</f>
-        <v>33428.622000000003</v>
+        <v>3864.1720000000005</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>6027.0239999999994</v>
+        <v>1679.8139999999999</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5464557632423572</v>
+        <v>1.3003570633415373</v>
       </c>
       <c r="H22" s="3">
         <f ca="1">SUMIFS(INDIRECT($D22),INDIRECT($B22),$C22,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>21567.851999999988</v>
+        <v>8442.4239999999991</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5499281986912754</v>
+        <v>-0.5422911713507873</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -1624,23 +1624,23 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9285714285714284</v>
+        <v>3.0555555555555554</v>
       </c>
       <c r="H23" s="5">
         <f ca="1">SUMIFS(INDIRECT($D23),INDIRECT($B23),$C23,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57692307692307687</v>
+        <v>0.35185185185185186</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -1655,23 +1655,23 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>11035.075899999991</v>
+        <v>372.36810000000003</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>859.08879999999999</v>
+        <v>264.26319999999998</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11.84509342922407</v>
+        <v>0.4090804167965878</v>
       </c>
       <c r="H24" s="3">
         <f ca="1">SUMIFS(INDIRECT($D24),INDIRECT($B24),$C24,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>3105.8304000000003</v>
+        <v>1812.656500000001</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5530194758863813</v>
+        <v>-0.79457326857018973</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -1686,23 +1686,23 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7999999999999901</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71052631578947811</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="H25" s="3">
         <f ca="1">SUMIFS(INDIRECT($D25),INDIRECT($B25),$C25,INDIRECT(H$5),H$7,INDIRECT(H$6),H$8, INDIRECT($E$2), $F$2)</f>
-        <v>7.3000000000000007</v>
+        <v>3.9</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10958904109589052</v>
+        <v>-0.43589743589743579</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1771,7 @@
   <dimension ref="A1:I1325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
